--- a/DATA_goal/Junction_Flooding_359.xlsx
+++ b/DATA_goal/Junction_Flooding_359.xlsx
@@ -447,10 +447,10 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>45118.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.56</v>
+        <v>95.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45118.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>4.42</v>
+        <v>44.19</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45118.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.35</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>3.84</v>
+        <v>38.44</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45118.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
+      <c r="S5" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>3.27</v>
+        <v>32.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_359.xlsx
+++ b/DATA_goal/Junction_Flooding_359.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45118.04861111111</v>
+        <v>45040.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>12.343</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>8.237</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>3.467</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>26.724</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>19.801</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>27.816</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>15.125</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>5.951</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>8.669</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>10.525</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>11.375</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>3.134</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>9.775</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>13.324</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>1.542</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>141.399</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>27.009</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.25</v>
+        <v>9.023</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.31</v>
+        <v>17.239</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.84</v>
+        <v>8.882</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>15.251</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>7.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>11.028</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>2.858</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>25.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>4.735</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>11.279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45118.05555555555</v>
+        <v>45040.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.09</v>
+        <v>21.018</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.97</v>
+        <v>15.348</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.913</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>45.916</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.73</v>
+        <v>36.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.57</v>
+        <v>16.377</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.99</v>
+        <v>61.243</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.13</v>
+        <v>25.596</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.37</v>
+        <v>11.141</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.51</v>
+        <v>16.328</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.74</v>
+        <v>18.367</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.17</v>
+        <v>19.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.18</v>
+        <v>5.313</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.38</v>
+        <v>16.542</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.46</v>
+        <v>23.354</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.36</v>
+        <v>14.223</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.46</v>
+        <v>1.409</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.14</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.19</v>
+        <v>244.474</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.59</v>
+        <v>46.226</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.12</v>
+        <v>15.269</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.9</v>
+        <v>30.739</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.44</v>
+        <v>16.072</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.5</v>
+        <v>2.737</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.82</v>
+        <v>30.682</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.76</v>
+        <v>13.487</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.68</v>
+        <v>12.098</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3</v>
+        <v>14.183</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.11</v>
+        <v>19.259</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.162</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13</v>
+        <v>56.058</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.51</v>
+        <v>8.455</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45118.0625</v>
+        <v>45040.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.67</v>
+        <v>9.506</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.69</v>
+        <v>6.883</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.82</v>
+        <v>1.072</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.35</v>
+        <v>20.878</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.23</v>
+        <v>16.437</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.44</v>
+        <v>7.376</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.36</v>
+        <v>32.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.56</v>
+        <v>11.635</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.15</v>
+        <v>5.018</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.42</v>
+        <v>7.213</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.34</v>
+        <v>8.352</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.69</v>
+        <v>8.977</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.01</v>
+        <v>2.418</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.01</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.01</v>
+        <v>10.583</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.89</v>
+        <v>6.607</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.898</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.606</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.44</v>
+        <v>107.145</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.44</v>
+        <v>21.171</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.78</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.3</v>
+        <v>13.948</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.02</v>
+        <v>7.252</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.362</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.57</v>
+        <v>15.604</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.45</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.33</v>
+        <v>5.57</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.67</v>
+        <v>6.519</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.61</v>
+        <v>8.749000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.732</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.32</v>
+        <v>30.195</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.39</v>
+        <v>3.775</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.47</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45118.06944444445</v>
+        <v>45040.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.22</v>
+        <v>6.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.38</v>
+        <v>4.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.31</v>
+        <v>14.62</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.54</v>
+        <v>11.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.2</v>
+        <v>5.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.88</v>
+        <v>22.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.99</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.18</v>
+        <v>5.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.93</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.22</v>
+        <v>6.31</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.87</v>
+        <v>1.69</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>2.63</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45118.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.45</v>
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_359.xlsx
+++ b/DATA_goal/Junction_Flooding_359.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45040.50694444445</v>
+        <v>45118.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.343</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.237</v>
+        <v>5.971</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.467</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>26.724</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>19.801</v>
+        <v>13.342</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.406000000000001</v>
+        <v>5.281</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>27.816</v>
+        <v>18.251</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.125</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.951</v>
+        <v>4.378</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.669</v>
+        <v>5.239</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.525</v>
+        <v>7.412</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.375</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.134</v>
+        <v>2.471</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.775</v>
+        <v>6.767</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.324</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.832000000000001</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.74</v>
+        <v>1.124</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.542</v>
+        <v>0.871</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>141.399</v>
+        <v>95.593</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>27.009</v>
+        <v>18.541</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.023</v>
+        <v>6.247</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>17.239</v>
+        <v>11.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.882</v>
+        <v>6.838</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.65</v>
+        <v>1.072</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.251</v>
+        <v>10.924</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.97</v>
+        <v>5.517</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.4</v>
+        <v>5.296</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.521000000000001</v>
+        <v>5.767</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.028</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.858</v>
+        <v>2.035</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>25.233</v>
+        <v>15.721</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.735</v>
+        <v>3.104</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.279</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45040.51388888889</v>
+        <v>45118.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.018</v>
+        <v>4.087</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.348</v>
+        <v>2.966</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.913</v>
+        <v>1.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.916</v>
+        <v>9.368</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.76</v>
+        <v>6.729</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.377</v>
+        <v>2.566</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.243</v>
+        <v>13.993</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.596</v>
+        <v>5.126</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.141</v>
+        <v>2.368</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.328</v>
+        <v>2.511</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.367</v>
+        <v>3.741</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.61</v>
+        <v>4.168</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.313</v>
+        <v>1.179</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.542</v>
+        <v>3.384</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.354</v>
+        <v>4.459</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.223</v>
+        <v>3.363</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.409</v>
+        <v>0.459</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.453</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.474</v>
+        <v>44.194</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>46.226</v>
+        <v>9.593</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.269</v>
+        <v>3.123</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.739</v>
+        <v>5.901</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.072</v>
+        <v>3.436</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.737</v>
+        <v>0.505</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.682</v>
+        <v>7.819</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.487</v>
+        <v>2.759</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.098</v>
+        <v>2.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.183</v>
+        <v>3.002</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.259</v>
+        <v>4.112</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.162</v>
+        <v>0.945</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>56.058</v>
+        <v>13.002</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.455</v>
+        <v>1.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.09</v>
+        <v>3.906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45040.52083333334</v>
+        <v>45118.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.506</v>
+        <v>3.669</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.883</v>
+        <v>2.692</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.072</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.878</v>
+        <v>8.349</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.437</v>
+        <v>6.226</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.376</v>
+        <v>2.441</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.75</v>
+        <v>12.359</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.635</v>
+        <v>4.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.018</v>
+        <v>2.147</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.213</v>
+        <v>2.417</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.352</v>
+        <v>3.342</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.977</v>
+        <v>3.69</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.418</v>
+        <v>1.008</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.519</v>
+        <v>3.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.583</v>
+        <v>4.007</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.607</v>
+        <v>2.889</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.898</v>
+        <v>0.293</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.606</v>
+        <v>0.333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>107.145</v>
+        <v>38.444</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.171</v>
+        <v>8.444000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.941</v>
+        <v>2.776</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.948</v>
+        <v>5.297</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.252</v>
+        <v>3.017</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.362</v>
+        <v>0.425</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.604</v>
+        <v>6.567</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.131</v>
+        <v>2.452</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.57</v>
+        <v>2.334</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.519</v>
+        <v>2.666</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.749000000000001</v>
+        <v>3.607</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.732</v>
+        <v>0.627</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>30.195</v>
+        <v>11.317</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.775</v>
+        <v>1.391</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>3.471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45040.52777777778</v>
+        <v>45118.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.64</v>
+        <v>3.225</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.81</v>
+        <v>2.377</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.623</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.62</v>
+        <v>7.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.46</v>
+        <v>5.538</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.15</v>
+        <v>2.198</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.49</v>
+        <v>10.881</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>3.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.01</v>
+        <v>2.185</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.85</v>
+        <v>2.929</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.31</v>
+        <v>3.222</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.69</v>
+        <v>0.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>2.632</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>3.534</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.487</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>32.721</v>
+      </c>
+      <c r="U5" s="4" t="n">
         <v>7.39</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>72.79000000000001</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>14.79</v>
-      </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>2.429</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>4.69</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.07</v>
+        <v>2.635</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.363</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.66</v>
+        <v>5.683</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>2.146</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.91</v>
+        <v>2.025</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.58</v>
+        <v>2.329</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.13</v>
+        <v>3.137</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>9.926</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45118.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q6" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>20.63</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.07</v>
+      <c r="R6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_359.xlsx
+++ b/DATA_goal/Junction_Flooding_359.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45118.04861111111</v>
+        <v>45040.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>12.343</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.971</v>
+        <v>8.237</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.73</v>
+        <v>3.467</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>18.5</v>
+        <v>26.724</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.342</v>
+        <v>19.801</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.281</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.251</v>
+        <v>27.816</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.34</v>
+        <v>15.125</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.378</v>
+        <v>5.951</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.239</v>
+        <v>8.669</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.412</v>
+        <v>10.525</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.207000000000001</v>
+        <v>11.375</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.471</v>
+        <v>3.134</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.767</v>
+        <v>9.775</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.829000000000001</v>
+        <v>13.324</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.48</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.124</v>
+        <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.871</v>
+        <v>1.542</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.593</v>
+        <v>141.399</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.541</v>
+        <v>27.009</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.247</v>
+        <v>9.023</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.315</v>
+        <v>17.239</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.838</v>
+        <v>8.882</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.072</v>
+        <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.924</v>
+        <v>15.251</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.517</v>
+        <v>7.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.296</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.767</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.276999999999999</v>
+        <v>11.028</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.035</v>
+        <v>2.858</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.721</v>
+        <v>25.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.104</v>
+        <v>4.735</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.808</v>
+        <v>11.279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45118.05555555555</v>
+        <v>45040.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.087</v>
+        <v>21.018</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.966</v>
+        <v>15.348</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.913</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.368</v>
+        <v>45.916</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.729</v>
+        <v>36.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.566</v>
+        <v>16.377</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.993</v>
+        <v>61.243</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.126</v>
+        <v>25.596</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.368</v>
+        <v>11.141</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.511</v>
+        <v>16.328</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.741</v>
+        <v>18.367</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.168</v>
+        <v>19.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.179</v>
+        <v>5.313</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.384</v>
+        <v>16.542</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.459</v>
+        <v>23.354</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.363</v>
+        <v>14.223</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.459</v>
+        <v>1.409</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.453</v>
+        <v>1.14</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.194</v>
+        <v>244.474</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.593</v>
+        <v>46.226</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.123</v>
+        <v>15.269</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.901</v>
+        <v>30.739</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.436</v>
+        <v>16.072</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.505</v>
+        <v>2.737</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.819</v>
+        <v>30.682</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.759</v>
+        <v>13.487</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.68</v>
+        <v>12.098</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.002</v>
+        <v>14.183</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.112</v>
+        <v>19.259</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.945</v>
+        <v>1.162</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.002</v>
+        <v>56.058</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.51</v>
+        <v>8.455</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.906</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45118.0625</v>
+        <v>45040.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.669</v>
+        <v>9.506</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.692</v>
+        <v>6.883</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>1.072</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.349</v>
+        <v>20.878</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.226</v>
+        <v>16.437</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.441</v>
+        <v>7.376</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.359</v>
+        <v>32.75</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.56</v>
+        <v>11.635</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.147</v>
+        <v>5.018</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.417</v>
+        <v>7.213</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.342</v>
+        <v>8.352</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.69</v>
+        <v>8.977</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.008</v>
+        <v>2.418</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.008</v>
+        <v>7.519</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.007</v>
+        <v>10.583</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.889</v>
+        <v>6.607</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.293</v>
+        <v>0.898</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.333</v>
+        <v>0.606</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.444</v>
+        <v>107.145</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.444000000000001</v>
+        <v>21.171</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.776</v>
+        <v>6.941</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.297</v>
+        <v>13.948</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.017</v>
+        <v>7.252</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.425</v>
+        <v>1.362</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.567</v>
+        <v>15.604</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.452</v>
+        <v>6.131</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.334</v>
+        <v>5.57</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.666</v>
+        <v>6.519</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.607</v>
+        <v>8.749000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.627</v>
+        <v>0.732</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.317</v>
+        <v>30.195</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.391</v>
+        <v>3.775</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.471</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45118.06944444445</v>
+        <v>45040.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.225</v>
+        <v>6.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.377</v>
+        <v>4.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.623</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.31</v>
+        <v>14.62</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.538</v>
+        <v>11.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.198</v>
+        <v>5.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.881</v>
+        <v>22.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.99</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.185</v>
+        <v>5.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.929</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.222</v>
+        <v>6.31</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.87</v>
+        <v>1.69</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.632</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.534</v>
+        <v>7.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.487</v>
+        <v>4.66</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.216</v>
+        <v>0.67</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.264</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.721</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.39</v>
+        <v>14.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.429</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.69</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.635</v>
+        <v>5.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.363</v>
+        <v>0.98</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.683</v>
+        <v>10.66</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.146</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.025</v>
+        <v>3.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.329</v>
+        <v>4.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.137</v>
+        <v>6.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.472</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.926</v>
+        <v>20.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.236</v>
+        <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.037</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45118.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.45</v>
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>
